--- a/projects/uva/data/data.xlsx
+++ b/projects/uva/data/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ECF349-A70F-41BF-B16E-36CB0E81AD91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162B3718-F52B-4151-8D6C-469D0733F2DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" tabRatio="941" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="143">
   <si>
     <t>connection</t>
   </si>
@@ -458,6 +458,12 @@
   </si>
   <si>
     <t>[fr]</t>
+  </si>
+  <si>
+    <t>fuel2</t>
+  </si>
+  <si>
+    <t>Efficiency2</t>
   </si>
 </sst>
 </file>
@@ -847,12 +853,12 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -872,7 +878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -892,7 +898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -903,7 +909,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -911,7 +917,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -919,7 +925,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -927,7 +933,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -935,7 +941,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -943,7 +949,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -951,7 +957,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -959,7 +965,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -967,7 +973,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -975,7 +981,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -983,7 +989,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -1017,20 +1023,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.53515625" customWidth="1"/>
+    <col min="4" max="4" width="12.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1038,28 +1045,31 @@
         <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>56</v>
       </c>
@@ -1070,7 +1080,7 @@
         <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>64</v>
@@ -1084,22 +1094,23 @@
       <c r="H2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>95</v>
@@ -1111,24 +1122,25 @@
         <v>95</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>95</v>
@@ -1140,130 +1152,137 @@
         <v>95</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H9" s="5"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1272,24 +1291,24 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
@@ -1303,22 +1322,25 @@
         <v>40</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
@@ -1332,22 +1354,25 @@
         <v>57</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>87</v>
       </c>
@@ -1359,20 +1384,21 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="5">
+      <c r="F3" s="7"/>
+      <c r="G3" s="5">
         <v>9510</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>30</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
@@ -1384,20 +1410,21 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
         <v>9510</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="7">
         <v>30</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
@@ -1408,19 +1435,20 @@
       <c r="D5" s="7">
         <v>98</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="5">
+      <c r="H5" s="7"/>
+      <c r="I5" s="5">
         <v>18.399999999999999</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>134</v>
       </c>
@@ -1431,17 +1459,17 @@
       <c r="D6">
         <v>70</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="23">
+      <c r="I6" s="23">
         <v>30</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="J6" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>137</v>
       </c>
@@ -1451,17 +1479,17 @@
       <c r="D7">
         <v>60</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="23">
+      <c r="I7" s="23">
         <v>30</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="J7" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>138</v>
       </c>
@@ -1471,13 +1499,13 @@
       <c r="D8">
         <v>95</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="23">
+      <c r="I8" s="23">
         <v>30</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="J8" s="23" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1494,17 +1522,17 @@
       <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1527,7 +1555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1550,7 +1578,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>87</v>
       </c>
@@ -1573,7 +1601,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
@@ -1596,7 +1624,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
@@ -1619,7 +1647,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>134</v>
       </c>
@@ -1642,7 +1670,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>137</v>
       </c>
@@ -1665,7 +1693,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>138</v>
       </c>
@@ -1688,7 +1716,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1697,7 +1725,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
@@ -1706,7 +1734,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
@@ -1715,7 +1743,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="10"/>
       <c r="C13" s="7"/>
@@ -1724,7 +1752,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
@@ -1733,7 +1761,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
@@ -1742,7 +1770,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
@@ -1751,7 +1779,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
@@ -1760,7 +1788,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
@@ -1769,7 +1797,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
@@ -1778,7 +1806,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
@@ -1787,7 +1815,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="7"/>
@@ -1796,7 +1824,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="7"/>
@@ -1805,7 +1833,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1814,7 +1842,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="7"/>
@@ -1836,18 +1864,18 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,7 +1898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1893,7 +1921,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>87</v>
       </c>
@@ -1903,7 +1931,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
@@ -1913,117 +1941,117 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
     </row>
   </sheetData>
@@ -2040,14 +2068,14 @@
       <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2061,7 +2089,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -2075,126 +2103,126 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="13"/>
       <c r="C4" s="12"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="12"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B6" s="13"/>
       <c r="C6" s="12"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -2214,13 +2242,13 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -2228,7 +2256,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -2236,7 +2264,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.20833919502323289</v>
       </c>
@@ -2254,15 +2282,15 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -2279,7 +2307,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -2296,7 +2324,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -2310,7 +2338,7 @@
         <v>3.2721315735113441E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -2324,7 +2352,7 @@
         <v>2.454752711900249E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -2338,7 +2366,7 @@
         <v>1.098427293123377E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -2352,7 +2380,7 @@
         <v>3.0683066380877359E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -2366,7 +2394,7 @@
         <v>1.5790398756465791E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -2380,7 +2408,7 @@
         <v>2.1575186605772591E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -2394,7 +2422,7 @@
         <v>6.831701333035269E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -2408,7 +2436,7 @@
         <v>2.1727378906782811E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -2422,7 +2450,7 @@
         <v>0.25057491387852932</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -2436,7 +2464,7 @@
         <v>0.65153020793300631</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -2450,7 +2478,7 @@
         <v>1.179242746477088</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -2464,7 +2492,7 @@
         <v>2.0108378573551908</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -2478,7 +2506,7 @@
         <v>2.644529115867126</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -2492,7 +2520,7 @@
         <v>2.6367846397317432</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2506,7 +2534,7 @@
         <v>2.295118152474926</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -2520,7 +2548,7 @@
         <v>1.6788507047771639</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -2534,7 +2562,7 @@
         <v>0.77026646968186541</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -2548,7 +2576,7 @@
         <v>0.14181124419541979</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -2562,7 +2590,7 @@
         <v>1.4657540320590389E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -2576,7 +2604,7 @@
         <v>1.0615958935221159E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -2590,7 +2618,7 @@
         <v>7.9393511331027899E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -2604,7 +2632,7 @@
         <v>6.0084468808197693E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -2618,7 +2646,7 @@
         <v>5.5059921501145106E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -2632,7 +2660,7 @@
         <v>4.2759932553556521E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -2646,7 +2674,7 @@
         <v>2.0044951245525189E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -2660,7 +2688,7 @@
         <v>1.521251513632841E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -2674,7 +2702,7 @@
         <v>1.1140388308292811E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -2688,7 +2716,7 @@
         <v>6.0103277630571819E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2702,7 +2730,7 @@
         <v>3.2389361508333358E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -2716,7 +2744,7 @@
         <v>2.910270195214228E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -2730,7 +2758,7 @@
         <v>1.245582236127913E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -2744,7 +2772,7 @@
         <v>0.17988740290884689</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -2758,7 +2786,7 @@
         <v>0.68256971097455998</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2772,7 +2800,7 @@
         <v>1.26116187506722</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -2786,7 +2814,7 @@
         <v>2.089968668425612</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -2800,7 +2828,7 @@
         <v>2.9251849797799361</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -2814,7 +2842,7 @@
         <v>3.47814709972599</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -2828,7 +2856,7 @@
         <v>3.8167034233650421</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -2842,7 +2870,7 @@
         <v>3.834657742067523</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -2856,7 +2884,7 @@
         <v>3.476106302507123</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -2870,7 +2898,7 @@
         <v>2.978332079307461</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -2884,7 +2912,7 @@
         <v>2.2268347226353442</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -2898,7 +2926,7 @@
         <v>1.367554702802749</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -2912,7 +2940,7 @@
         <v>0.28717155540238037</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -2926,7 +2954,7 @@
         <v>3.490092095325726E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -2940,7 +2968,7 @@
         <v>3.0610330819871051E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -2954,7 +2982,7 @@
         <v>2.75228184248184E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -2968,7 +2996,7 @@
         <v>2.495382117720037E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -2982,7 +3010,7 @@
         <v>1.9239814994837529E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -2996,7 +3024,7 @@
         <v>1.84391731013267E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -3010,7 +3038,7 @@
         <v>1.8898749582063591E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -3024,7 +3052,7 @@
         <v>1.9561337650143121E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -3038,7 +3066,7 @@
         <v>2.1790488819908221E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -3052,7 +3080,7 @@
         <v>2.399237233080664E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -3066,7 +3094,7 @@
         <v>6.8988357693324967E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -3080,7 +3108,7 @@
         <v>0.32676126921664489</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -3094,7 +3122,7 @@
         <v>0.87508736116006791</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -3108,7 +3136,7 @@
         <v>1.421489053500689</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -3122,7 +3150,7 @@
         <v>2.1237012150967289</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -3136,7 +3164,7 @@
         <v>3.3513675217878429</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -3150,7 +3178,7 @@
         <v>3.8792028804814001</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -3164,7 +3192,7 @@
         <v>4.0256579952003282</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -3178,7 +3206,7 @@
         <v>4.1211143772756573</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -3192,7 +3220,7 @@
         <v>4.023767536891194</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -3206,7 +3234,7 @@
         <v>3.690363575353266</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -3220,7 +3248,7 @@
         <v>2.806490506875865</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -3234,7 +3262,7 @@
         <v>1.630890440831372</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3248,7 +3276,7 @@
         <v>0.7822733235705166</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -3262,7 +3290,7 @@
         <v>9.5114256499754371E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -3276,7 +3304,7 @@
         <v>3.5095115910000037E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -3290,7 +3318,7 @@
         <v>2.7273620316705389E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -3304,7 +3332,7 @@
         <v>2.141523898806387E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -3318,7 +3346,7 @@
         <v>1.286510785531468E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -3332,7 +3360,7 @@
         <v>6.623424599784181E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3346,7 +3374,7 @@
         <v>2.8269226044503199E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -3360,7 +3388,7 @@
         <v>4.3634612573274782E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -3374,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -3388,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -3402,7 +3430,7 @@
         <v>2.546105285650501E-6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>76</v>
       </c>
@@ -3416,7 +3444,7 @@
         <v>3.9518018610774377E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>76</v>
       </c>
@@ -3430,7 +3458,7 @@
         <v>0.2690186096118542</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>76</v>
       </c>
@@ -3444,7 +3472,7 @@
         <v>0.65439492898730645</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -3458,7 +3486,7 @@
         <v>1.275346128947251</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>76</v>
       </c>
@@ -3472,7 +3500,7 @@
         <v>2.380484289335318</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>76</v>
       </c>
@@ -3486,7 +3514,7 @@
         <v>3.1394292821450631</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>76</v>
       </c>
@@ -3500,7 +3528,7 @@
         <v>3.397234779312293</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>76</v>
       </c>
@@ -3514,7 +3542,7 @@
         <v>3.236746815058853</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>76</v>
       </c>
@@ -3528,7 +3556,7 @@
         <v>2.5251420578804189</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>76</v>
       </c>
@@ -3542,7 +3570,7 @@
         <v>1.381250419506737</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>76</v>
       </c>
@@ -3556,7 +3584,7 @@
         <v>0.80096369146151336</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>76</v>
       </c>
@@ -3570,7 +3598,7 @@
         <v>0.30624021902367321</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>76</v>
       </c>
@@ -3584,7 +3612,7 @@
         <v>2.0443538524577899E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>76</v>
       </c>
@@ -3598,7 +3626,7 @@
         <v>4.6734335822103236E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>76</v>
       </c>
@@ -3612,7 +3640,7 @@
         <v>4.194305211261724E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -3626,7 +3654,7 @@
         <v>2.501298681688044E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>76</v>
       </c>
@@ -3654,13 +3682,13 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -3671,7 +3699,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -3682,7 +3710,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>130</v>
       </c>
@@ -3693,7 +3721,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>131</v>
       </c>
@@ -3704,7 +3732,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
         <v>132</v>
       </c>
@@ -3715,7 +3743,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="18" t="s">
         <v>133</v>
       </c>
@@ -3740,13 +3768,13 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -3757,7 +3785,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -3768,7 +3796,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="18">
         <v>0</v>
       </c>
@@ -3779,7 +3807,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="18">
         <v>1</v>
       </c>
@@ -3790,7 +3818,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -3801,7 +3829,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="18">
         <v>3</v>
       </c>
@@ -3812,7 +3840,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>4</v>
       </c>
@@ -3823,7 +3851,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -3834,7 +3862,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>6</v>
       </c>
@@ -3845,7 +3873,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="18">
         <v>7</v>
       </c>
@@ -3856,7 +3884,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
         <v>8</v>
       </c>
@@ -3867,7 +3895,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="18">
         <v>9</v>
       </c>
@@ -3878,7 +3906,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="18">
         <v>10</v>
       </c>
@@ -3889,7 +3917,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="18">
         <v>11</v>
       </c>
@@ -3900,7 +3928,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="18">
         <v>12</v>
       </c>
@@ -3911,7 +3939,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>13</v>
       </c>
@@ -3922,7 +3950,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="18">
         <v>14</v>
       </c>
@@ -3933,7 +3961,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
         <v>15</v>
       </c>
@@ -3944,7 +3972,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -3955,7 +3983,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
         <v>17</v>
       </c>
@@ -3966,7 +3994,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
         <v>18</v>
       </c>
@@ -3977,7 +4005,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="18">
         <v>19</v>
       </c>
@@ -3988,7 +4016,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
         <v>20</v>
       </c>
@@ -3999,7 +4027,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="18">
         <v>21</v>
       </c>
@@ -4010,7 +4038,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>22</v>
       </c>
@@ -4021,7 +4049,7 @@
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="18">
         <v>23</v>
       </c>
@@ -4045,18 +4073,18 @@
       <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4091,7 +4119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -4126,7 +4154,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -4150,7 +4178,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -4174,7 +4202,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -4208,13 +4236,13 @@
       <selection activeCell="C5" sqref="A3:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4228,7 +4256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -4256,12 +4284,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -4275,7 +4303,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -4289,7 +4317,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="20">
         <v>2017</v>
       </c>
@@ -4298,7 +4326,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="20">
         <v>2022</v>
       </c>
@@ -4307,7 +4335,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="20">
         <v>2027</v>
       </c>
@@ -4330,13 +4358,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -4344,7 +4372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -4352,7 +4380,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.05</v>
       </c>
@@ -4373,21 +4401,21 @@
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -4425,7 +4453,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -4463,7 +4491,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -4486,7 +4514,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -4518,7 +4546,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -4550,7 +4578,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -4564,7 +4592,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -4584,7 +4612,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -4616,7 +4644,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -4645,7 +4673,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -4659,7 +4687,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -4687,12 +4715,12 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -4706,7 +4734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>52</v>
       </c>
